--- a/DungeonShooting_Godot/excel/EnemyBase.xlsx
+++ b/DungeonShooting_Godot/excel/EnemyBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21915" windowHeight="13485"/>
+    <workbookView windowWidth="28380" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Remark</t>
   </si>
   <si>
+    <t>Hp</t>
+  </si>
+  <si>
     <t>MoveSpeed</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>血量</t>
+  </si>
+  <si>
     <t>移动速度</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>$ActivityBase</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>float</t>
@@ -734,14 +743,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1058,35 +1064,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="2" customWidth="1"/>
-    <col min="11" max="15" width="9" style="2"/>
+    <col min="3" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="2" customWidth="1"/>
+    <col min="12" max="16" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:10">
+    <row r="1" ht="23" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1110,132 +1116,147 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="86" customHeight="1" spans="1:10">
+    <row r="2" ht="86" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" ht="69" customHeight="1" spans="1:10">
+    <row r="3" ht="69" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E4" s="2">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="2">
+        <v>900</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>250</v>
+      </c>
+      <c r="J4" s="2">
+        <v>400</v>
+      </c>
+      <c r="K4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="34" customHeight="1" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="E5" s="2">
         <v>120</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F5" s="2">
         <v>1500</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G5" s="2">
         <v>900</v>
       </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>250</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J5" s="2">
         <v>400</v>
       </c>
-      <c r="J4" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" ht="34" customHeight="1" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>120</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F5" s="2">
-        <v>900</v>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>250</v>
-      </c>
-      <c r="I5" s="2">
-        <v>400</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>50</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/EnemyBase.xlsx
+++ b/DungeonShooting_Godot/excel/EnemyBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28380" windowHeight="14880"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -64,6 +64,9 @@
     <t>BackViewRange</t>
   </si>
   <si>
+    <t>Gold</t>
+  </si>
+  <si>
     <t>表Id</t>
   </si>
   <si>
@@ -97,6 +100,10 @@
     <t>背后的视野半径, 单位像素</t>
   </si>
   <si>
+    <t>掉落金币数量区间, 如果为负数或者0则不会掉落金币
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -112,6 +119,9 @@
     <t>boolean</t>
   </si>
   <si>
+    <t>[int]</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
@@ -121,6 +131,9 @@
     <t>敌人1</t>
   </si>
   <si>
+    <t>[1,5]</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
@@ -128,6 +141,9 @@
   </si>
   <si>
     <t>敌人2</t>
+  </si>
+  <si>
+    <t>[1,3]</t>
   </si>
 </sst>
 </file>
@@ -1064,28 +1080,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
     <col min="3" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.1272727272727" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.1272727272727" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.2545454545455" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.2545454545455" style="2" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="2" customWidth="1"/>
-    <col min="12" max="16" width="9" style="2"/>
+    <col min="12" max="12" width="23.5454545454545" style="2" customWidth="1"/>
+    <col min="13" max="16" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:11">
+    <row r="1" ht="23" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,86 +1136,95 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="86" customHeight="1" spans="1:11">
+    <row r="2" ht="86" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" ht="69" customHeight="1" spans="1:11">
+    <row r="3" ht="69" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:11">
+    <row r="4" ht="30" customHeight="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
@@ -1224,16 +1250,19 @@
       <c r="K4" s="2">
         <v>50</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" ht="34" customHeight="1" spans="1:11">
+    <row r="5" ht="34" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>20</v>
@@ -1258,6 +1287,9 @@
       </c>
       <c r="K5" s="2">
         <v>50</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1"/>
@@ -1277,7 +1309,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1294,7 +1326,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/EnemyBase.xlsx
+++ b/DungeonShooting_Godot/excel/EnemyBase.xlsx
@@ -131,7 +131,7 @@
     <t>敌人1</t>
   </si>
   <si>
-    <t>[1,5]</t>
+    <t>[-2,3]</t>
   </si>
   <si>
     <t>0002</t>
@@ -143,7 +143,7 @@
     <t>敌人2</t>
   </si>
   <si>
-    <t>[1,3]</t>
+    <t>[-2,4]</t>
   </si>
 </sst>
 </file>

--- a/DungeonShooting_Godot/excel/EnemyBase.xlsx
+++ b/DungeonShooting_Godot/excel/EnemyBase.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1265,7 +1265,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
         <v>120</v>

--- a/DungeonShooting_Godot/excel/EnemyBase.xlsx
+++ b/DungeonShooting_Godot/excel/EnemyBase.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="29400" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +39,9 @@
     <t>Friction</t>
   </si>
   <si>
+    <t>AttackInterval</t>
+  </si>
+  <si>
     <t>CanPickUpWeapon</t>
   </si>
   <si>
@@ -86,6 +76,10 @@
   </si>
   <si>
     <t>移动摩擦力, 仅用于人物基础移动</t>
+  </si>
+  <si>
+    <t>单次攻击间隔时间, 秒
+注意, 敌人攻击后计算间隔时间会使用当前字段值与武器上的TriggerInterval叠加</t>
   </si>
   <si>
     <t>是否可以拾起武器</t>
@@ -1080,29 +1074,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="13.7545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
     <col min="3" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.1272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.1272727272727" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.2545454545455" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21.2545454545455" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.5454545454545" style="2" customWidth="1"/>
-    <col min="13" max="16" width="9" style="2"/>
+    <col min="8" max="8" width="21.6346153846154" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.5480769230769" style="2" customWidth="1"/>
+    <col min="14" max="17" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:12">
+    <row r="1" ht="23" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,92 +1134,101 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="86" customHeight="1" spans="1:12">
+    <row r="2" ht="120" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" ht="69" customHeight="1" spans="1:12">
+    <row r="3" ht="69" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:12">
+    <row r="4" ht="30" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
@@ -1238,31 +1242,34 @@
       <c r="G4" s="2">
         <v>900</v>
       </c>
-      <c r="H4" s="2" t="b">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>250</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>400</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>50</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1" spans="1:12">
+    <row r="5" ht="34" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
         <v>25</v>
@@ -1276,20 +1283,23 @@
       <c r="G5" s="2">
         <v>900</v>
       </c>
-      <c r="H5" s="2" t="b">
+      <c r="H5" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="I5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <v>250</v>
-      </c>
       <c r="J5" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K5" s="2">
+        <v>300</v>
+      </c>
+      <c r="L5" s="2">
         <v>50</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>37</v>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1"/>
@@ -1309,7 +1319,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1326,7 +1336,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/EnemyBase.xlsx
+++ b/DungeonShooting_Godot/excel/EnemyBase.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12400"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,7 +64,7 @@
     <t>TailAfterViewRange</t>
   </si>
   <si>
-    <t>BackViewRange</t>
+    <t>ViewAngleRange</t>
   </si>
   <si>
     <t>Gold</t>
@@ -91,7 +104,7 @@
     <t>发现玩家后跟随玩家的视野半径</t>
   </si>
   <si>
-    <t>背后的视野半径, 单位像素</t>
+    <t>视野角度范围, 角度制</t>
   </si>
   <si>
     <t>掉落金币数量区间, 如果为负数或者0则不会掉落金币
@@ -1076,24 +1089,24 @@
   <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
     <col min="3" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.1272727272727" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.6346153846154" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.6363636363636" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1272727272727" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.2545454545455" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.2545454545455" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.5480769230769" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.5454545454545" style="2" customWidth="1"/>
     <col min="14" max="17" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1252,10 +1265,10 @@
         <v>250</v>
       </c>
       <c r="K4" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L4" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>35</v>
@@ -1296,7 +1309,7 @@
         <v>300</v>
       </c>
       <c r="L5" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>39</v>
@@ -1319,7 +1332,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1336,7 +1349,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/EnemyBase.xlsx
+++ b/DungeonShooting_Godot/excel/EnemyBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t>[-2,4]</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>enemy0003</t>
+  </si>
+  <si>
+    <t>敌人3</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>enemy0004</t>
+  </si>
+  <si>
+    <t>敌人4</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>enemy0005</t>
+  </si>
+  <si>
+    <t>敌人5</t>
   </si>
 </sst>
 </file>
@@ -1087,13 +1114,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="13.7545454545455" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
@@ -1315,7 +1342,129 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1"/>
+    <row r="6" ht="30" customHeight="1" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="2">
+        <v>900</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>250</v>
+      </c>
+      <c r="K6" s="2">
+        <v>300</v>
+      </c>
+      <c r="L6" s="2">
+        <v>150</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G7" s="2">
+        <v>900</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>250</v>
+      </c>
+      <c r="K7" s="2">
+        <v>300</v>
+      </c>
+      <c r="L7" s="2">
+        <v>150</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G8" s="2">
+        <v>900</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>250</v>
+      </c>
+      <c r="K8" s="2">
+        <v>300</v>
+      </c>
+      <c r="L8" s="2">
+        <v>150</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
